--- a/BaseDatos.xlsx
+++ b/BaseDatos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUSTAMANTE\Google Drive\Conferencias\Power BI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUSTAMANTE\Google Drive\Conferencias\Power BI\Repositorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -163,6 +163,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:I611" totalsRowShown="0">
+  <autoFilter ref="A1:I611"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Referencia"/>
+    <tableColumn id="2" name="Fecha Alta"/>
+    <tableColumn id="3" name="Fecha Venta"/>
+    <tableColumn id="4" name="Tipo"/>
+    <tableColumn id="5" name="Operación"/>
+    <tableColumn id="6" name="Provincia"/>
+    <tableColumn id="7" name="Superficie"/>
+    <tableColumn id="8" name="Precio Venta"/>
+    <tableColumn id="9" name="Vendedor"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,19 +449,19 @@
   <dimension ref="A1:I611"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18147,5 +18165,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>